--- a/数据整理/stocks/A股/上证主板/600161-天坛生物.xlsx
+++ b/数据整理/stocks/A股/上证主板/600161-天坛生物.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>401.11</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>92.35</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>3.98</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>15.9642</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>10</v>
       </c>
     </row>
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009312</t>
+          <t>001373</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>新疆前海联合价值优选混合A</t>
+          <t>易方达新丝路灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>90.57</t>
+          <t>57.64</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.70</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>10</v>
+          <t>91.46</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.7494</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>009313</t>
+          <t>512290</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>新疆前海联合价值优选混合C</t>
+          <t>国泰中证生物医药ETF</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>90.57</t>
+          <t>41.91</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4.70</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>10</v>
+          <t>99.23</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.7183</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>001076</t>
+          <t>340006</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>易方达改革红利混合</t>
+          <t>兴全全球视野股票</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>90.57</t>
+          <t>23.82</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4.98</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>10</v>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9695</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>007613</t>
+          <t>007066</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>嘉合医疗健康混合</t>
+          <t>浦银安盛先进制造混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>91.37</t>
+          <t>9.28</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4.00</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>8</v>
+          <t>90.12</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.81</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8176</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>340006</t>
+          <t>009312</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>兴全全球视野股票</t>
+          <t>新疆前海联合价值优选混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>91.74</t>
+          <t>16.85</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>4.07</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>6</v>
+          <t>90.57</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7920</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -660,26 +730,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>010572</t>
+          <t>001076</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>易方达中证万得生物科技指数（LOF）C</t>
+          <t>易方达改革红利混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>94.40</t>
+          <t>13.05</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2.60</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>9</v>
+          <t>90.57</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6499</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -688,26 +768,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>512290</t>
+          <t>160211</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>国泰中证生物医药ETF</t>
+          <t>国泰中小盘成长混合(LOF)</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>99.23</t>
+          <t>10.06</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>4.10</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>7</v>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4054</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -716,26 +806,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>161122</t>
+          <t>007067</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>易方达中证万得生物科技指数（LOF）A</t>
+          <t>浦银安盛先进制造混合C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>94.40</t>
+          <t>4.03</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2.60</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>9</v>
+          <t>90.12</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.81</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3550</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="11">
@@ -744,26 +844,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>510660</t>
+          <t>005671</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>华夏上证医药卫生ETF</t>
+          <t>新疆前海联合研究优选灵活配置混合A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>98.48</t>
+          <t>4.88</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2.41</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>9</v>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2294</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -772,26 +882,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>160211</t>
+          <t>161122</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>国泰中小盘成长混合(LOF)</t>
+          <t>易方达中证万得生物科技指数（LOF）A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>93.17</t>
+          <t>7.01</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>4.03</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>10</v>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1823</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="13">
@@ -800,25 +920,35 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>001287</t>
+          <t>001382</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>安信优势增长灵活配置混合A</t>
+          <t>易方达国企改革混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>92.83</t>
+          <t>3.02</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>3.77</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
+          <t>91.09</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1800</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
         <v>7</v>
       </c>
     </row>
@@ -828,26 +958,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>001373</t>
+          <t>001287</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>易方达新丝路灵活配置混合</t>
+          <t>安信优势增长灵活配置混合A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>91.46</t>
+          <t>4.09</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>4.77</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>8</v>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1542</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="15">
@@ -856,26 +996,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>001382</t>
+          <t>009313</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>易方达国企改革混合</t>
+          <t>新疆前海联合价值优选混合C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>91.09</t>
+          <t>2.98</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>5.96</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>7</v>
+          <t>90.57</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1401</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -894,15 +1044,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
           <t>92.83</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>3.77</t>
         </is>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0746</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
         <v>7</v>
       </c>
     </row>
@@ -912,26 +1072,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>003581</t>
+          <t>004634</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>新疆前海联合国民健康产业灵活配置混合A</t>
+          <t>新疆前海联合泳涛灵活配置混合A</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>93.96</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>5.75</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>6</v>
+          <t>90.56</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0710</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="18">
@@ -940,26 +1110,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>004634</t>
+          <t>003581</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>新疆前海联合泳涛灵活配置混合A</t>
+          <t>新疆前海联合国民健康产业灵活配置混合A</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>90.56</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>4.58</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>10</v>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0627</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="19">
@@ -968,26 +1148,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>005671</t>
+          <t>510660</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>新疆前海联合研究优选灵活配置混合A</t>
+          <t>华夏上证医药卫生ETF</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>92.06</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>4.70</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>8</v>
+          <t>98.48</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0284</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="20">
@@ -1006,15 +1196,25 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
           <t>92.06</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>4.70</t>
         </is>
       </c>
-      <c r="F20" t="n">
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1024,26 +1224,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>007041</t>
+          <t>007613</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>新疆前海联合泳涛灵活配置混合C</t>
+          <t>嘉合医疗健康混合</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>90.56</t>
+          <t>0.47</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>4.58</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>10</v>
+          <t>91.37</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="22">
@@ -1062,15 +1272,25 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
           <t>93.96</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>5.75</t>
         </is>
       </c>
-      <c r="F22" t="n">
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1080,26 +1300,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>007066</t>
+          <t>010572</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>浦银安盛先进制造混合A</t>
+          <t>易方达中证万得生物科技指数（LOF）C</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>90.12</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>8.81</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>4</v>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="24">
@@ -1108,26 +1338,34 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>007067</t>
+          <t>007041</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>浦银安盛先进制造混合C</t>
+          <t>新疆前海联合泳涛灵活配置混合C</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>90.12</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>8.81</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>4</v>
+          <t>90.56</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1141,7 +1379,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1162,15 +1400,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -1192,15 +1440,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>314.64</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>94.58</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>5.22</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>16.4242</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1210,26 +1468,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001766</t>
+          <t>512290</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>上投摩根医疗健康股票</t>
+          <t>国泰中证生物医药ETF</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>80.80</t>
+          <t>33.58</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2.95</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>7</v>
+          <t>99.40</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1316</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1238,26 +1506,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>004634</t>
+          <t>007066</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>新疆前海联合泳涛灵活配置混合A</t>
+          <t>浦银安盛先进制造混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>91.39</t>
+          <t>6.52</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4.36</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>10</v>
+          <t>91.30</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.21</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5353</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -1266,26 +1544,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>007041</t>
+          <t>001766</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>新疆前海联合泳涛灵活配置混合C</t>
+          <t>上投摩根医疗健康股票</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>91.39</t>
+          <t>13.51</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4.36</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>10</v>
+          <t>80.80</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3985</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -1294,26 +1582,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>006274</t>
+          <t>007067</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>圆信永丰医药健康混合</t>
+          <t>浦银安盛先进制造混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>94.88</t>
+          <t>4.03</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>6.67</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>6</v>
+          <t>91.30</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.21</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3309</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -1322,26 +1620,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>007066</t>
+          <t>005108</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>浦银安盛先进制造混合A</t>
+          <t>圆信永丰双利优选定期开放灵活配置混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>91.30</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>8.21</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>5</v>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1172</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -1350,26 +1658,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>007067</t>
+          <t>004634</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>浦银安盛先进制造混合C</t>
+          <t>新疆前海联合泳涛灵活配置混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>91.30</t>
+          <t>1.50</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>8.21</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>5</v>
+          <t>91.39</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0654</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -1378,26 +1696,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>512290</t>
+          <t>001965</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>国泰中证生物医药ETF</t>
+          <t>圆信永丰兴源灵活配置混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>99.40</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>3.37</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>9</v>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0391</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -1406,26 +1734,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>007613</t>
+          <t>006274</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>嘉合医疗健康混合</t>
+          <t>圆信永丰医药健康混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>70.30</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2.94</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>8</v>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -1434,26 +1772,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>001965</t>
+          <t>007613</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>圆信永丰兴源灵活配置混合A</t>
+          <t>嘉合医疗健康混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>93.80</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>4.25</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>10</v>
+          <t>70.30</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -1472,15 +1820,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>93.80</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>4.25</t>
         </is>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1490,26 +1848,30 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>005108</t>
+          <t>007041</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>圆信永丰双利优选定期开放灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>94.65</t>
-        </is>
-      </c>
+          <t>新疆前海联合泳涛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
-          <t>6.27</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>6</v>
+          <t>91.39</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/600161-天坛生物.xlsx
+++ b/数据整理/stocks/A股/上证主板/600161-天坛生物.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1856,7 +1857,6 @@
           <t>新疆前海联合泳涛灵活配置混合C</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
           <t>91.39</t>
@@ -1872,6 +1872,480 @@
       </c>
       <c r="H13" t="n">
         <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>110011</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达中小盘混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>287.01</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>71.07</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>16.9910</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>512290</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰中证生物医药ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>26.41</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.91</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8451</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010673</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>兴全中证800六个月持有期指数增强A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>29.00</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>34.79</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7772</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007066</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>浦银安盛先进制造混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>78.29</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.17</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5135</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007067</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>浦银安盛先进制造混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>78.29</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.17</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3237</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001382</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达国企改革混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.72</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1929</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000523</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国投瑞银医疗保健行业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1051</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010674</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>兴全中证800六个月持有期指数增强C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>34.79</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1013</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>003581</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>新疆前海联合国民健康产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0618</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007111</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>新疆前海联合国民健康产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001068</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华融新锐灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>69.81</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/600161-天坛生物.xlsx
+++ b/数据整理/stocks/A股/上证主板/600161-天坛生物.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2351,4 +2352,782 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009630</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>浦银安盛ESG责任投资混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>20.95</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>68.17</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4874</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>512290</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰中证生物医药ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>29.18</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.99</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0125</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010673</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>兴全中证800六个月持有期指数增强A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>21.93</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>96.78</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7325</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009631</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>浦银安盛ESG责任投资混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>68.17</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5474</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001076</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达改革红利混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10.47</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>75.19</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4209</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007066</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>浦银安盛先进制造混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>82.28</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.40</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3589</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011466</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>兴业医疗保健混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.52</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.07</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3196</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007067</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>浦银安盛先进制造混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>82.28</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.40</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2250</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001382</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>易方达国企改革混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>74.98</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1575</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000968</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发中证养老产业指数A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>9.89</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1404</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011467</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>兴业医疗保健混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.07</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1211</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010674</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>兴全中证800六个月持有期指数增强C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>96.78</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0822</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>003594</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>长盛盛崇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>44.71</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0577</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>080008</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>长盛战略新兴产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>47.82</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0576</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001834</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>长盛战略新兴产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>47.82</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0534</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010597</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>创金合信景雯灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>36.31</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002982</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>广发中证养老产业指数C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010598</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>创金合信景雯灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>36.31</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>003595</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>长盛盛崇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>44.71</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600161-天坛生物.xlsx
+++ b/数据整理/stocks/A股/上证主板/600161-天坛生物.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3130,4 +3131,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>19</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.82</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>11</v>
+      </c>
+      <c r="D3" t="n">
+        <v>19.93</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>12</v>
+      </c>
+      <c r="D4" t="n">
+        <v>19.07</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>23</v>
+      </c>
+      <c r="D5" t="n">
+        <v>25.6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600161-天坛生物.xlsx
+++ b/数据整理/stocks/A股/上证主板/600161-天坛生物.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3139,7 +3140,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3150,17 +3151,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3170,14 +3191,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>19</v>
-      </c>
-      <c r="D2" t="n">
-        <v>5.82</v>
+          <t>007066</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>浦银安盛先进制造混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>35.54</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>81.51</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.5269</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -3186,14 +3229,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>11</v>
-      </c>
-      <c r="D3" t="n">
-        <v>19.93</v>
+          <t>009630</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>浦银安盛ESG责任投资混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>24.19</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>84.73</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.6836</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -3202,14 +3267,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>12</v>
-      </c>
-      <c r="D4" t="n">
-        <v>19.07</v>
+          <t>001766</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>上投摩根医疗健康股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>13.77</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>82.58</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6334</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -3218,13 +3305,341 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>009631</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>浦银安盛ESG责任投资混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>84.73</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4956</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007067</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>浦银安盛先进制造混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>81.51</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2019</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003581</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>新疆前海联合国民健康产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.26</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0759</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010597</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>创金合信景雯灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>37.31</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007111</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>新疆前海联合国民健康产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>86.26</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010598</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>创金合信景雯灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>37.31</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.66</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>19</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.82</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>11</v>
+      </c>
+      <c r="D4" t="n">
+        <v>19.93</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>12</v>
+      </c>
+      <c r="D5" t="n">
+        <v>19.07</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>23</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>25.6</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600161-天坛生物.xlsx
+++ b/数据整理/stocks/A股/上证主板/600161-天坛生物.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3538,7 +3539,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3549,17 +3550,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3569,14 +3590,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>9</v>
-      </c>
-      <c r="D2" t="n">
-        <v>5.66</v>
+          <t>009630</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>浦银安盛ESG责任投资混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>15.61</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>80.10</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1473</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -3585,14 +3628,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>19</v>
-      </c>
-      <c r="D3" t="n">
-        <v>5.82</v>
+          <t>002666</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源沪港深创新成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11.96</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>81.64</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8193</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -3601,14 +3666,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>11</v>
-      </c>
-      <c r="D4" t="n">
-        <v>19.93</v>
+          <t>001230</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华医药科技股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>16.65</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>81.88</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6344</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -3617,14 +3704,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>12</v>
-      </c>
-      <c r="D5" t="n">
-        <v>19.07</v>
+          <t>001766</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>上投摩根医疗健康股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.35</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>80.54</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5817</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -3633,13 +3742,813 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>009631</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>浦银安盛ESG责任投资混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>80.10</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4219</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007066</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>浦银安盛先进制造混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>74.55</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.56</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2767</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002667</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>前海开源沪港深创新成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>81.64</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2226</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007067</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>浦银安盛先进制造混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>74.55</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.56</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1716</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>003581</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>新疆前海联合国民健康产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1234</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012027</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>光大保德信安阳一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>15.22</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>22.05</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1142</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001415</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>信诚新锐回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>9.07</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>24.72</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0599</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012028</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>光大保德信安阳一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>7.68</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>22.05</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0576</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>003234</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>信诚至利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>8.99</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>22.05</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0548</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001402</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>信诚新选回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>8.37</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>22.05</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0511</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004157</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>信诚至诚灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>22.71</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0454</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002046</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>信诚新锐回报灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>24.72</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0343</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>003235</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>信诚至利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>22.05</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0323</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010703</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>财通智选消费股票A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0319</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>002030</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>信诚新选回报灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>22.05</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010704</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>财通智选消费股票C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>007111</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>新疆前海联合国民健康产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>004158</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>信诚至诚灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>22.71</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>22</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.95</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.66</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>19</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.82</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>11</v>
+      </c>
+      <c r="D5" t="n">
+        <v>19.93</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>12</v>
+      </c>
+      <c r="D6" t="n">
+        <v>19.07</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>23</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>25.6</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600161-天坛生物.xlsx
+++ b/数据整理/stocks/A股/上证主板/600161-天坛生物.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4431,7 +4432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4442,17 +4443,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4462,14 +4483,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>22</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4.95</v>
+          <t>009630</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>浦银安盛ESG责任投资混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>15.52</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>77.35</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.27</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1283</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -4478,14 +4521,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>9</v>
-      </c>
-      <c r="D3" t="n">
-        <v>5.66</v>
+          <t>009631</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>浦银安盛ESG责任投资混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>77.35</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.27</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4122</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -4494,14 +4559,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>19</v>
-      </c>
-      <c r="D4" t="n">
-        <v>5.82</v>
+          <t>007066</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>浦银安盛先进制造混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>80.87</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.36</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2723</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -4510,14 +4597,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>11</v>
-      </c>
-      <c r="D5" t="n">
-        <v>19.93</v>
+          <t>001550</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>天弘中证医药100指数型发起式 A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>15.53</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1755</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -4526,14 +4635,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>12</v>
-      </c>
-      <c r="D6" t="n">
-        <v>19.07</v>
+          <t>007067</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>浦银安盛先进制造混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>80.87</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.36</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1678</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -4542,13 +4673,335 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>003581</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>新疆前海联合国民健康产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1210</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001551</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>天弘中证医药100指数型发起式 C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>10.04</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1135</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012028</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>光大保德信安阳一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>20.16</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0504</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012027</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>光大保德信安阳一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>20.16</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0462</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007111</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>新疆前海联合国民健康产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>22</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.95</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>9</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.66</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>19</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5.82</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>11</v>
+      </c>
+      <c r="D6" t="n">
+        <v>19.93</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>12</v>
+      </c>
+      <c r="D7" t="n">
+        <v>19.07</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>23</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>25.6</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600161-天坛生物.xlsx
+++ b/数据整理/stocks/A股/上证主板/600161-天坛生物.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D2" t="n">
-        <v>2.5</v>
+        <v>3.93</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>4.95</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D4" t="n">
-        <v>5.66</v>
+        <v>4.95</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D5" t="n">
-        <v>5.82</v>
+        <v>5.66</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D6" t="n">
-        <v>19.93</v>
+        <v>5.82</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D7" t="n">
-        <v>19.07</v>
+        <v>19.93</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>12</v>
+      </c>
+      <c r="D8" t="n">
+        <v>19.07</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>23</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>25.6</v>
       </c>
     </row>
@@ -600,6 +617,898 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>050026</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时医疗保健行业混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>32.65</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.15</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9730</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009630</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>浦银安盛ESG责任投资混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.65</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>84.74</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.26</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7145</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001230</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华医药科技股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>15.31</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>80.22</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5711</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009631</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>浦银安盛ESG责任投资混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>84.74</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.26</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4113</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001766</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>上投摩根医疗健康股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.99</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>82.99</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2616</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007067</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>浦银安盛先进制造混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>77.53</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.15</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1679</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000968</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发中证养老产业指数A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>10.84</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1496</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012202</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中加消费优选混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>73.15</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1397</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>003581</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>新疆前海联合国民健康产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1354</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001551</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>天弘中证医药100指数型发起式 C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>8.58</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>95.24</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1175</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007066</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>浦银安盛先进制造混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>77.53</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.15</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1035</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001550</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>天弘中证医药100指数型发起式 A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>95.24</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0727</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004050</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华夏新锦升灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>64.62</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0399</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012203</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中加消费优选混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>73.15</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0226</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>007111</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>新疆前海联合国民健康产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002982</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>广发中证养老产业指数C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>516560</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华宝养老ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>98.01</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011895</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>博时医疗保健行业混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>88.15</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>004051</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华夏新锦升灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>64.62</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>014932</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>上投摩根医疗健康股票C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>82.99</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>014328</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>格林新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>64.92</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>014327</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>格林新兴产业混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>64.92</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1035,7 +1944,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1927,7 +2836,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2325,7 +3234,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3103,7 +4012,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3577,7 +4486,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4082,7 +4991,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/600161-天坛生物.xlsx
+++ b/数据整理/stocks/A股/上证主板/600161-天坛生物.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D2" t="n">
-        <v>3.93</v>
+        <v>2.65</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D3" t="n">
-        <v>2.5</v>
+        <v>3.93</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="D4" t="n">
-        <v>4.95</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D5" t="n">
-        <v>5.66</v>
+        <v>4.95</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D6" t="n">
-        <v>5.82</v>
+        <v>5.66</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D7" t="n">
-        <v>19.93</v>
+        <v>5.82</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D8" t="n">
-        <v>19.07</v>
+        <v>19.93</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>12</v>
+      </c>
+      <c r="D9" t="n">
+        <v>19.07</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>23</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>25.6</v>
       </c>
     </row>
@@ -616,7 +633,1789 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>110011</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达中小盘混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>401.11</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>15.9642</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001373</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达新丝路灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>57.64</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.46</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.7494</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>512290</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰中证生物医药ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>41.91</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.23</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.7183</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>340006</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>兴全全球视野股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>23.82</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9695</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007066</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>浦银安盛先进制造混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.28</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.12</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.81</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8176</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009312</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>新疆前海联合价值优选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>16.85</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.57</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7920</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001076</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达改革红利混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>13.05</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.57</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6499</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>160211</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国泰中小盘成长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>10.06</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4054</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007067</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>浦银安盛先进制造混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.12</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.81</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3550</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005671</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>新疆前海联合研究优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2294</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>161122</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>易方达中证万得生物科技指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1823</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001382</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>易方达国企改革混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.09</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1800</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001287</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>安信优势增长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1542</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009313</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>新疆前海联合价值优选混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.57</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1401</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>002036</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>安信优势增长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0746</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>004634</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳涛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.56</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0710</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>003581</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>新疆前海联合国民健康产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0627</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>510660</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华夏上证医药卫生ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>98.48</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0284</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005672</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>新疆前海联合研究优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>007613</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>嘉合医疗健康混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.37</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>007111</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>新疆前海联合国民健康产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010572</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>易方达中证万得生物科技指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>007041</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳涛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.56</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009630</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>浦银安盛ESG责任投资混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8.97</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.14</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.34</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8378</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009631</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>浦银安盛ESG责任投资混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.14</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.34</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4847</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007067</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>浦银安盛先进制造混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>79.28</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.96</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1989</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>003581</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>新疆前海联合国民健康产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1614</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012202</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中加消费优选混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.36</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1551</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>015663</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易米开鑫价值优选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>62.86</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1521</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002666</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>前海开源沪港深创新成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>67.11</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1276</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007066</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>浦银安盛先进制造混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>79.28</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.96</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1210</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011977</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>格林研究优选混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>86.76</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0865</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>014867</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫优悦安和混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0832</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009893</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫优悦安和混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0645</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002667</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>前海开源沪港深创新成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>67.11</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0601</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>012203</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中加消费优选混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>88.36</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0404</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>015664</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>易米开鑫价值优选混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>62.86</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0256</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>007111</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>新疆前海联合国民健康产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>012430</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>农银汇理瑞康6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>28.06</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>014157</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>国泰君安创新医药混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>77.47</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011978</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>格林研究优选混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>86.76</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005281</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中科沃土转型升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>60.18</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>014328</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>格林新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>81.22</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>014327</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>格林新兴产业混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>81.22</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1508,7 +3307,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1944,7 +3743,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2836,7 +4635,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3234,7 +5033,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4012,7 +5811,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4486,7 +6285,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4989,932 +6788,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H24"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>110011</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>易方达中小盘混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>401.11</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>92.35</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.98</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>15.9642</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>001373</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>易方达新丝路灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>57.64</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>91.46</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.77</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>2.7494</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>512290</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>国泰中证生物医药ETF</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>41.91</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>99.23</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.10</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1.7183</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>340006</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>兴全全球视野股票</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>23.82</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>91.74</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.07</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.9695</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>007066</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>浦银安盛先进制造混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>9.28</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>90.12</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>8.81</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.8176</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>009312</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>新疆前海联合价值优选混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>16.85</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>90.57</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.70</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.7920</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>001076</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>易方达改革红利混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>13.05</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>90.57</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.98</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.6499</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>160211</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>国泰中小盘成长混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>10.06</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>93.17</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>4.03</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.4054</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>007067</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>浦银安盛先进制造混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>4.03</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>90.12</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>8.81</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.3550</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>005671</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>新疆前海联合研究优选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>4.88</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>92.06</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>4.70</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.2294</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>161122</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>易方达中证万得生物科技指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>7.01</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>94.40</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>2.60</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.1823</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>001382</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>易方达国企改革混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>3.02</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>91.09</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>5.96</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.1800</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>001287</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>安信优势增长灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>4.09</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>92.83</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>3.77</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.1542</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>009313</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>新疆前海联合价值优选混合C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>2.98</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>90.57</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>4.70</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.1401</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>002036</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>安信优势增长灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>1.98</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>92.83</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>3.77</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0746</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>004634</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>新疆前海联合泳涛灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>1.55</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>90.56</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>4.58</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0710</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>003581</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>新疆前海联合国民健康产业灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>1.09</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>93.96</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>5.75</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0627</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>510660</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>华夏上证医药卫生ETF</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>1.18</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>98.48</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>2.41</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0284</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>005672</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>新疆前海联合研究优选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0.46</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>92.06</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>4.70</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0216</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>007613</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>嘉合医疗健康混合</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0.47</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>91.37</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>4.00</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0188</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>007111</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>新疆前海联合国民健康产业灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>0.17</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>93.96</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>5.75</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0098</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>010572</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>易方达中证万得生物科技指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>94.40</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>2.60</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0016</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>007041</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>新疆前海联合泳涛灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>90.56</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>4.58</t>
-        </is>
-      </c>
-      <c r="G24" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" t="n">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>